--- a/final_project/gru_gbrbm_H_div_2 (drop 0.2)/type2/pd_results_W5_H50_B16.xlsx
+++ b/final_project/gru_gbrbm_H_div_2 (drop 0.2)/type2/pd_results_W5_H50_B16.xlsx
@@ -518,7 +518,7 @@
         <v>0.7126436781609196</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5327380952380952</v>
+        <v>0.4940476190476191</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -526,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.1192731787523932</v>
+        <v>0.1710940238109777</v>
       </c>
       <c r="J2" t="n">
-        <v>1477.854415573133</v>
+        <v>2212.677365051944</v>
       </c>
       <c r="K2" t="n">
-        <v>2727346.5481005</v>
+        <v>6110605.756680937</v>
       </c>
       <c r="L2" t="n">
-        <v>1651.467997903835</v>
+        <v>2471.963947285829</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4973824720179546</v>
+        <v>-0.126111957438954</v>
       </c>
     </row>
   </sheetData>
